--- a/src/麻将逻辑(3).xlsx
+++ b/src/麻将逻辑(3).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="13425" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="136">
   <si>
     <t>客户端逻辑</t>
   </si>
@@ -200,6 +200,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这四个都要验证是否为当前出牌人，防伪造，若不是则忽略，防止干扰正常逻辑,</t>
     </r>
     <r>
@@ -249,6 +256,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>s10</t>
     </r>
     <r>
@@ -267,6 +281,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>s10</t>
     </r>
     <r>
@@ -320,6 +341,9 @@
     <t xml:space="preserve"> 不要 </t>
   </si>
   <si>
+    <t>吃</t>
+  </si>
+  <si>
     <t>s10</t>
   </si>
   <si>
@@ -374,6 +398,9 @@
     <t>这三种情况都要更新积分s10</t>
   </si>
   <si>
+    <t>s14，s7</t>
+  </si>
+  <si>
     <t>未达四人仅存，不响应，无</t>
   </si>
   <si>
@@ -393,6 +420,18 @@
   </si>
   <si>
     <t>显示碰，无</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>恢复房间</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>显示笑，无</t>
   </si>
   <si>
     <t>对象有</t>
@@ -536,6 +575,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -543,37 +589,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,32 +603,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,31 +640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,9 +656,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,115 +769,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,68 +947,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -963,6 +1002,17 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -982,6 +1032,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1023,17 +1084,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1042,65 +1092,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1129,6 +1120,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1142,6 +1166,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1150,10 +1200,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1162,137 +1212,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1306,6 +1356,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -1338,6 +1391,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1347,10 +1403,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1408,103 +1467,148 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1836,1158 +1940,1295 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="7" customWidth="1"/>
-    <col min="9" max="9" width="4.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="28" style="6" customWidth="1"/>
-    <col min="13" max="13" width="33" style="6" customWidth="1"/>
-    <col min="14" max="16" width="9" style="6"/>
+    <col min="1" max="2" width="13.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="8" customWidth="1"/>
+    <col min="10" max="10" width="4.75" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="28" style="7" customWidth="1"/>
+    <col min="14" max="14" width="33" style="7" customWidth="1"/>
+    <col min="15" max="17" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="13" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="11" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="11"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="3:11">
       <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" ht="24.75" spans="1:10">
-      <c r="A5" s="14" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" ht="24.75" spans="1:11">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="53"/>
-    </row>
-    <row r="6" ht="24.75" spans="1:10">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" ht="24.75" spans="1:11">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="22"/>
+      <c r="K6" s="66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:17">
-      <c r="A7" s="20" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:18">
+      <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="71"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="40.5" spans="1:17">
-      <c r="A8" s="22" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="89"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="40.5" spans="1:18">
+      <c r="A8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="E8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="72"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:17">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="90"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:18">
+      <c r="A9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="71"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" spans="1:17">
-      <c r="A10" s="22" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="89"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" spans="1:18">
+      <c r="A10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="71"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" spans="1:17">
-      <c r="A11" s="20" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="89"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:18">
+      <c r="A11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="71"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:17">
-      <c r="A12" s="22" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="89"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:18">
+      <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="71"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:17">
-      <c r="A13" s="22" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="89"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:18">
+      <c r="A13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="72"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:17">
-      <c r="A14" s="25" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="90"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:18">
+      <c r="A14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="D14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="E14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="F14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="G14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="H14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="I14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="J14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="K14" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="72"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="39" customHeight="1" spans="1:17">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="72"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="40.5" spans="1:17">
-      <c r="A16" s="28" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="90"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="39" customHeight="1" spans="1:18">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="90"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="40.5" spans="1:18">
+      <c r="A16" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D16" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="72"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A17" s="22" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="90"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="D17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="71"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:17">
-      <c r="A18" s="21" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="89"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:18">
+      <c r="A18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="71"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:17">
-      <c r="A19" s="21" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="89"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:18">
+      <c r="A19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="71"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:17">
-      <c r="A20" s="21" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="89"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:18">
+      <c r="A20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="71"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="27" spans="1:17">
-      <c r="A21" s="21" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="89"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="27" spans="1:18">
+      <c r="A21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="G21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="H21" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="I21" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="J21" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="71"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="27" spans="1:17">
-      <c r="A22" s="21" t="s">
+      <c r="K21" s="67"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="89"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="27" spans="1:18">
+      <c r="A22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="71"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="27" spans="1:17">
-      <c r="A23" s="21" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="89"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="27" spans="1:18">
+      <c r="A23" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="71"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="27" spans="1:17">
-      <c r="A24" s="23" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="89"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="27" spans="1:18">
+      <c r="A24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="F24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="G24" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="26"/>
+      <c r="I24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="26"/>
+      <c r="K24" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="72"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="67.5" spans="1:17">
-      <c r="A25" s="23" t="s">
+      <c r="L24" s="54"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="90"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="67.5" spans="1:18">
+      <c r="A25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="D25" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="E25" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="F25" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="G25" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61" t="s">
+      <c r="H25" s="35"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="72"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="54" spans="1:17">
-      <c r="A26" s="23" t="s">
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="90"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="54" spans="1:18">
+      <c r="A26" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="D26" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="E26" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="F26" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="G26" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="72"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="54" spans="1:17">
-      <c r="A27" s="23" t="s">
+      <c r="H26" s="35"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="90"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="54" spans="1:18">
+      <c r="A27" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="E27" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="F27" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="72"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:17">
-      <c r="A28" s="21" t="s">
+      <c r="G27" s="26"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="90"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:18">
+      <c r="A28" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="71"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:17">
-      <c r="A29" s="21" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="89"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:18">
+      <c r="A29" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="D29" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="F29" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="G29" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="H29" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="I29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="38" t="s">
+      <c r="J29" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J29" s="54"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="71"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:17">
-      <c r="A30" s="21" t="s">
+      <c r="K29" s="67"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="89"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:18">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="F30" s="43"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="89"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:18">
+      <c r="A31" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="71"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="27" spans="1:17">
-      <c r="A31" s="21" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="D31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="89"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="27" spans="1:18">
+      <c r="A32" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D32" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="71"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:17">
-      <c r="A32" s="21" t="s">
+      <c r="E32" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="89"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:18">
+      <c r="A33" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="71"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="54" spans="1:17">
-      <c r="A33" s="25" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="89"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="54" spans="1:18">
+      <c r="A34" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="27" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F34" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G34" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="25" t="s">
+      <c r="I34" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="J33" s="66" t="s">
+      <c r="J34" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="71"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="40.5" spans="1:17">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="27" t="s">
+      <c r="K34" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="L34" s="54"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="89"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="40.5" spans="1:18">
+      <c r="A35" s="46"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="72"/>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="40.5" spans="1:16">
-      <c r="A35" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="40" t="s">
+      <c r="G35" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26" t="s">
+      <c r="H35" s="35"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="90"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="27" spans="1:18">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="90"/>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="40.5" spans="1:17">
+      <c r="A37" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="59" t="s">
+      <c r="F37" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="K35" s="67"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-    </row>
-    <row r="36" s="4" customFormat="1" spans="1:16">
-      <c r="A36" s="21" t="s">
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="J37" s="29"/>
+      <c r="K37" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
-    </row>
-    <row r="37" s="5" customFormat="1" spans="1:16">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41" t="s">
+      <c r="L37" s="81"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+    </row>
+    <row r="38" s="4" customFormat="1" spans="1:17">
+      <c r="A38" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="5" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" s="5" customFormat="1" spans="1:16">
-      <c r="A38" s="42" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84"/>
+    </row>
+    <row r="39" s="5" customFormat="1" spans="1:17">
+      <c r="A39" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="22" t="s">
+      <c r="B39" s="53"/>
+      <c r="C39" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="43" t="s">
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="86"/>
+      <c r="O39" s="86"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="86"/>
+    </row>
+    <row r="40" s="5" customFormat="1" spans="1:17">
+      <c r="A40" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="I38" s="41"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" s="5" customFormat="1" spans="1:16">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="22" t="s">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="41"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" s="5" customFormat="1" ht="27" spans="1:16">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="22" t="s">
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+    </row>
+    <row r="41" s="6" customFormat="1" spans="1:17">
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="43" t="s">
+      <c r="H41" s="54"/>
+      <c r="I41" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-    </row>
-    <row r="41" s="5" customFormat="1" ht="54" spans="1:16">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="22" t="s">
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" s="6" customFormat="1" spans="1:17">
+      <c r="A42" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="43" t="s">
+      <c r="B42" s="55"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I41" s="41"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-    </row>
-    <row r="42" s="5" customFormat="1" spans="1:16">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="22" t="s">
+      <c r="H42" s="54"/>
+      <c r="I42" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="43" t="s">
+      <c r="J42" s="54"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" s="6" customFormat="1" spans="1:17">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-    </row>
-    <row r="44" s="6" customFormat="1" ht="61" customHeight="1" spans="1:8">
-      <c r="A44" s="45" t="s">
+      <c r="H43" s="54"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="54"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" s="6" customFormat="1" ht="27" spans="1:17">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="45"/>
-      <c r="F44" s="47" t="s">
+      <c r="H44" s="54"/>
+      <c r="I44" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="H44" s="47" t="s">
+      <c r="J44" s="54"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" s="6" customFormat="1" ht="54" spans="1:17">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" s="6" customFormat="1"/>
-    <row r="46" s="6" customFormat="1" spans="1:6">
-      <c r="A46" s="48" t="s">
+      <c r="H45" s="54"/>
+      <c r="I45" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="J45" s="54"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" s="6" customFormat="1" spans="1:17">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="48" t="s">
+      <c r="H46" s="54"/>
+      <c r="I46" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="J46" s="54"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="48" s="7" customFormat="1" ht="61" customHeight="1" spans="1:9">
+      <c r="A48" s="56" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" s="6" customFormat="1" spans="1:6">
-      <c r="A47" s="48"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="48"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" s="6" customFormat="1" spans="1:6">
-      <c r="A48" s="52"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="24"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" s="6" customFormat="1" spans="1:6">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" s="6" customFormat="1" spans="6:6">
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" s="6" customFormat="1" spans="6:6">
-      <c r="F51" s="7"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="56"/>
+      <c r="G48" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" s="58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" s="7" customFormat="1"/>
+    <row r="50" s="7" customFormat="1" spans="1:7">
+      <c r="A50" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="62"/>
+      <c r="E50" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" s="7" customFormat="1" spans="1:7">
+      <c r="A51" s="59"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="59"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" s="7" customFormat="1" spans="1:7">
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="27"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" s="7" customFormat="1" spans="1:7">
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" s="7" customFormat="1" spans="7:7">
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" s="7" customFormat="1" spans="7:7">
+      <c r="G55" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C50:C51"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E50:E51"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F46:F62"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G50:G66"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H33:H34"/>
     <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I34:I35"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="A38:D42"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="A42:E46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
